--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>9.50680528029795</v>
+        <v>9.558705292934931</v>
       </c>
       <c r="G2" t="n">
-        <v>7.663287678658579</v>
+        <v>7.719402956952014</v>
       </c>
       <c r="H2" t="n">
-        <v>11.51144173651561</v>
+        <v>11.52883248399174</v>
       </c>
       <c r="I2" t="n">
-        <v>1.679935205104085</v>
+        <v>1.679789493733906</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8908783306500809</v>
+        <v>0.8597426907656701</v>
       </c>
       <c r="K2" t="n">
-        <v>2.659020302325831</v>
+        <v>2.650064815982796</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1426216222879079</v>
+        <v>0.142662760886534</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09001949863503056</v>
+        <v>0.0889265508633756</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2110578617043331</v>
+        <v>0.2110483859013716</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3793208652336421</v>
+        <v>0.3716748077026123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002392720022642813</v>
+        <v>0.0001679632586709231</v>
       </c>
       <c r="H3" t="n">
-        <v>1.079356277912404</v>
+        <v>1.064023942517129</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3121326612127145</v>
+        <v>0.3048827760661708</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001988042833282581</v>
+        <v>0.0001432833411799475</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8883701808527212</v>
+        <v>0.8721313737180489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3807053445287859</v>
+        <v>0.373158765322302</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000242154554357176</v>
+        <v>0.0001698325457199391</v>
       </c>
       <c r="N3" t="n">
-        <v>1.083603025532377</v>
+        <v>1.068595975283141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.930380100637544</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.719570920210685</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.59285642650887</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.984672269800077</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.85988597410685</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.522196189700845</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5158215262088359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.08909638340909554</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.279644361184513</v>
       </c>
     </row>
   </sheetData>
